--- a/curation/draft/package12/R12_BC_SDTM_QRS_EQ5D.xlsx
+++ b/curation/draft/package12/R12_BC_SDTM_QRS_EQ5D.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\package12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A56E71-3255-47B4-9F70-26A8A4FE4E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CD4EE8-8EE6-4E9B-9CDE-A8A3DBE95F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9A5E83B0-077C-428E-9288-813321B55629}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{9A5E83B0-077C-428E-9288-813321B55629}"/>
   </bookViews>
   <sheets>
     <sheet name="BC_EQ5D5L" sheetId="1" r:id="rId1"/>
@@ -58,13 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="184">
-  <si>
-    <t>C17048</t>
-  </si>
-  <si>
-    <t>C49609</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="182">
   <si>
     <t>TODAY</t>
   </si>
@@ -1113,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFDE594-353B-4D17-935B-86E353989113}">
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,86 +1139,86 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1239,29 +1233,29 @@
     </row>
     <row r="3" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -1276,29 +1270,29 @@
     </row>
     <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
@@ -1313,542 +1307,542 @@
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="11"/>
       <c r="L6" s="10"/>
       <c r="M6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="11"/>
       <c r="L7" s="10"/>
       <c r="M7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="11"/>
       <c r="L8" s="10"/>
       <c r="M8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="11"/>
       <c r="L10" s="10"/>
       <c r="M10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K11"/>
     </row>
     <row r="12" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="P15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1858,249 +1852,249 @@
     </row>
     <row r="18" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="P21" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2110,249 +2104,249 @@
     </row>
     <row r="24" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="P27" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -2362,249 +2356,249 @@
     </row>
     <row r="30" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="P33" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="3"/>
     </row>
     <row r="34" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -2614,175 +2608,175 @@
     </row>
     <row r="36" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P37" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P38" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q39" s="11">
         <v>0</v>
@@ -2790,87 +2784,87 @@
     </row>
     <row r="40" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>173</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="P40" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="N41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="P41" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q41" s="11">
         <v>100</v>
@@ -2878,132 +2872,132 @@
     </row>
     <row r="42" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G42" t="s">
+        <v>173</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="P42" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="P43" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:17" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3026,218 +3020,191 @@
       <c r="P46"/>
       <c r="Q46"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G48"/>
-    </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G49"/>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50"/>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51"/>
-    </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G54" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="I55"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{5FFF75A0-AF8B-4D4D-BCB3-E6084173FF7F}"/>
     <hyperlink ref="D5" r:id="rId2" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{DD551265-1BC5-4C8F-BDAB-EDC248BFD4C7}"/>
-    <hyperlink ref="G52" r:id="rId3" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C49609" xr:uid="{BF34834B-72C2-4151-84FE-4F2B4776B676}"/>
-    <hyperlink ref="G54" r:id="rId4" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C17048" xr:uid="{EA7B858B-6545-4561-9345-0CE0C01CBC04}"/>
-    <hyperlink ref="E45:E46" r:id="rId5" display="C101875" xr:uid="{398CB222-FFB6-4886-AD63-F0F2E624F260}"/>
-    <hyperlink ref="M6" r:id="rId6" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{896DC4F1-DF65-4011-9B03-E0674AFAC8C4}"/>
-    <hyperlink ref="M7" r:id="rId7" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{93DF656C-8BE2-47FF-B0DD-459546102C09}"/>
-    <hyperlink ref="M8" r:id="rId8" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{AE484A27-8173-4D46-A501-A1F64F080C70}"/>
-    <hyperlink ref="M9" r:id="rId9" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{C14D6E34-E8FD-44FF-B3DB-7F12C1F84BDE}"/>
-    <hyperlink ref="M10" r:id="rId10" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{A2B00BFE-FE92-496A-96AF-E30D65A456E3}"/>
-    <hyperlink ref="N6" r:id="rId11" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{B1E72DFF-B4B1-430E-B407-6A25878B0549}"/>
-    <hyperlink ref="N7" r:id="rId12" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{D754E056-30A5-47EA-AC74-382FFBD432C4}"/>
-    <hyperlink ref="N8" r:id="rId13" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{09BBE273-D4C4-4D28-9DE4-2FF26D7D9189}"/>
-    <hyperlink ref="N9" r:id="rId14" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{EB0FB6B9-0BF7-49FF-B900-DBD30761AFA6}"/>
-    <hyperlink ref="N10" r:id="rId15" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{D920685A-3C0E-4032-ACF3-440FCE765A8F}"/>
-    <hyperlink ref="C6:C10" r:id="rId16" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{7AA7AF3B-87E8-4F7F-83E2-98952D9688CA}"/>
-    <hyperlink ref="D6" r:id="rId17" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{F2340903-556A-4A62-B6E7-5F6ADD7401A3}"/>
-    <hyperlink ref="D7" r:id="rId18" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{782EF0E7-EC00-48BD-95DF-535E77B088CC}"/>
-    <hyperlink ref="D8" r:id="rId19" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{C311B609-F691-4605-8214-CE7DD6E909C9}"/>
-    <hyperlink ref="D9" r:id="rId20" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{9B53C322-B72C-4689-9DF3-5F56BF2775FB}"/>
-    <hyperlink ref="D10" r:id="rId21" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{F101326F-B7C1-4B35-8AED-825963429BB3}"/>
-    <hyperlink ref="M12" r:id="rId22" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{E05E0617-0833-4A19-A106-5CE1E0D1ECA9}"/>
-    <hyperlink ref="M13" r:id="rId23" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{79A22C9F-4FBE-4445-B29A-38CA410B17C5}"/>
-    <hyperlink ref="M14" r:id="rId24" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{EA1D8749-A366-4598-8B9D-49F94FE10014}"/>
-    <hyperlink ref="M15" r:id="rId25" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{74AD9EE3-1C0C-46D4-A1CC-8D8074827BC5}"/>
-    <hyperlink ref="M16" r:id="rId26" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{8DE5F1C9-1F14-4A04-8C5E-4CE5A8BDA62C}"/>
-    <hyperlink ref="N12" r:id="rId27" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{68DFB1A0-1240-4E2A-8DBC-89312B0A85BA}"/>
-    <hyperlink ref="N13" r:id="rId28" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{D2F44CC3-8C8D-4F42-8665-900A2CF6025F}"/>
-    <hyperlink ref="N14" r:id="rId29" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{18396755-7AFA-4965-8767-928C3DFE2CE2}"/>
-    <hyperlink ref="N15" r:id="rId30" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{7E4D7FC9-8AF4-4A2E-B7EC-3F2FCF9D267D}"/>
-    <hyperlink ref="N16" r:id="rId31" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{A4D7A321-D16A-4EE2-90D0-D2788DF6735D}"/>
-    <hyperlink ref="C11" r:id="rId32" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{F0FC45E1-CE08-42A4-A57C-CCC11071591E}"/>
-    <hyperlink ref="D11" r:id="rId33" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{7CB1F031-FD7B-4193-8E41-32769B71FADB}"/>
-    <hyperlink ref="E11" r:id="rId34" xr:uid="{CEAA5FE5-EE24-449F-92DB-CE89410EE678}"/>
-    <hyperlink ref="C12" r:id="rId35" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{5187EF10-F8F4-426B-926B-236BD25BD950}"/>
-    <hyperlink ref="C13" r:id="rId36" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{1DDB3F3A-D57B-49EF-8CBB-5030ED7C9495}"/>
-    <hyperlink ref="C14" r:id="rId37" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{C585C05C-C745-4388-BE5A-275AB9D3759C}"/>
-    <hyperlink ref="C15" r:id="rId38" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{05DE69A9-3B79-4A8B-9026-6366CCB78C98}"/>
-    <hyperlink ref="C16" r:id="rId39" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{734A08DE-2B48-48EA-893A-56BFE8802F24}"/>
-    <hyperlink ref="D12" r:id="rId40" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{100D9596-1796-466C-AD28-4B64C62D1056}"/>
-    <hyperlink ref="D13" r:id="rId41" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{372D9409-075C-4BE0-B293-9987959EFC40}"/>
-    <hyperlink ref="D14" r:id="rId42" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{355C1983-B53A-4BBC-93EC-53BB5BAE9D45}"/>
-    <hyperlink ref="D15" r:id="rId43" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{E37EC414-EE0E-4DEB-9B5D-679A9362D4B2}"/>
-    <hyperlink ref="D16" r:id="rId44" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{2485CBCA-FB72-4F57-8155-AE6D31701C4F}"/>
-    <hyperlink ref="E12" r:id="rId45" xr:uid="{1216F399-621E-438D-99EA-4234EDBAF223}"/>
-    <hyperlink ref="E13" r:id="rId46" xr:uid="{9EAA417D-CD4C-4A1D-83FA-68D475B2A15C}"/>
-    <hyperlink ref="E14" r:id="rId47" xr:uid="{B7E9A843-A76F-487D-9691-9DAAA1914569}"/>
-    <hyperlink ref="E15" r:id="rId48" xr:uid="{558CE2C5-D900-41FC-8AE6-41FFB94F65D3}"/>
-    <hyperlink ref="E16" r:id="rId49" xr:uid="{45CAC3FD-1350-4E0D-9D85-415A0EFC9364}"/>
-    <hyperlink ref="C17" r:id="rId50" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{C377821A-00FE-449C-9511-C3C14D4BEB5E}"/>
-    <hyperlink ref="D17" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{399708CE-8AE6-4534-B4C6-9FE77C573F16}"/>
-    <hyperlink ref="E17" r:id="rId52" xr:uid="{9B5F9197-1795-4A8A-9C40-AF42B1AC662F}"/>
-    <hyperlink ref="C18" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{C15D1259-910D-41D8-A306-84C18171E895}"/>
-    <hyperlink ref="C19" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{ED8B6859-A111-4228-9C4B-F0AE53DCD105}"/>
-    <hyperlink ref="C20" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{606A9D0E-11B9-4968-B87D-B7F874324B7A}"/>
-    <hyperlink ref="C21" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{842CF38B-E89C-4301-9FBC-147D45FB1763}"/>
-    <hyperlink ref="C22" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{A40A9A3E-C063-41E4-AA9B-9F1FABB7407C}"/>
-    <hyperlink ref="D18" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{FC256C42-A764-4EAF-BFFE-E52B3C5E1D8E}"/>
-    <hyperlink ref="D19" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{7E3D0F25-A1D6-45A6-9BFB-53F3D62D0C0A}"/>
-    <hyperlink ref="D20" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{D3BE6390-A9D5-49BB-AC04-C8E97DAC9F5C}"/>
-    <hyperlink ref="D21" r:id="rId61" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{83D025E3-C116-43AF-AC42-4AA17F8E3506}"/>
-    <hyperlink ref="D22" r:id="rId62" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{42361B39-DC74-4CB1-87F9-097B8212A229}"/>
-    <hyperlink ref="E18" r:id="rId63" xr:uid="{71B436F6-E069-4A85-81E7-A22110EB2B77}"/>
-    <hyperlink ref="E19" r:id="rId64" xr:uid="{842037F2-DC95-4D2A-91A5-E160F0FCC3E4}"/>
-    <hyperlink ref="E20" r:id="rId65" xr:uid="{BD02CBEB-5B86-431D-BF59-664562A71BBE}"/>
-    <hyperlink ref="E21" r:id="rId66" xr:uid="{CC7022FD-2963-4BD1-9BE1-15F7923BC389}"/>
-    <hyperlink ref="E22" r:id="rId67" xr:uid="{4BA3FA06-8167-41B6-A7E1-6363BF5EE478}"/>
-    <hyperlink ref="M18" r:id="rId68" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{B54543CF-307D-4BEA-A9AE-98B85078C0F7}"/>
-    <hyperlink ref="M19" r:id="rId69" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{DF5B25AF-7871-42F8-9DCF-3785897C66DB}"/>
-    <hyperlink ref="M20" r:id="rId70" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{A77DCE78-456B-488C-B56E-8A2336F86AEA}"/>
-    <hyperlink ref="M21" r:id="rId71" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{0B6EF566-E3D8-48E2-9209-4BDFD9767CAD}"/>
-    <hyperlink ref="M22" r:id="rId72" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{F3BF07CD-ECE5-4966-A481-2B9686B745A1}"/>
-    <hyperlink ref="N18" r:id="rId73" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{6469BE10-C574-4046-B09B-AFF08B922361}"/>
-    <hyperlink ref="N19" r:id="rId74" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{7F7CB66A-8BBD-4FD3-B41A-04E040EDE4B0}"/>
-    <hyperlink ref="N20" r:id="rId75" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{0363794B-2DC8-415D-922A-57013CDBB286}"/>
-    <hyperlink ref="N21" r:id="rId76" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{23930C1D-F6AF-427C-B5D7-F1A508B45DB3}"/>
-    <hyperlink ref="N22" r:id="rId77" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{84440F3E-A265-47BE-96C3-85A90813CC18}"/>
-    <hyperlink ref="E23" r:id="rId78" xr:uid="{CE3F6E15-1AB6-4884-94AB-6456A2B86C4D}"/>
-    <hyperlink ref="E24" r:id="rId79" xr:uid="{648F0A91-8299-4FCF-92A2-C0D83104E8E1}"/>
-    <hyperlink ref="E25" r:id="rId80" xr:uid="{B4038A3F-4845-4108-968C-8D667434F0F4}"/>
-    <hyperlink ref="E26" r:id="rId81" xr:uid="{2F59D425-3FD7-475B-862B-BD6A1421E2B9}"/>
-    <hyperlink ref="E27" r:id="rId82" xr:uid="{79A9013A-2563-4EB8-B73A-F718D1A89EC3}"/>
-    <hyperlink ref="E28" r:id="rId83" xr:uid="{4C2BE266-4DA8-4E93-80C6-3AC0B7915739}"/>
-    <hyperlink ref="C23" r:id="rId84" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{D571D7B8-C829-4AE3-9F3E-0F0636065001}"/>
-    <hyperlink ref="D23" r:id="rId85" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{405F5374-2E3C-45CE-B33B-2F74DBFD4EC2}"/>
-    <hyperlink ref="C24" r:id="rId86" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{344E7816-7E51-42AF-A214-DB248DC6F1AD}"/>
-    <hyperlink ref="C25" r:id="rId87" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{C17EBD83-ECDC-43F7-A9A2-662FD4C84510}"/>
-    <hyperlink ref="C26" r:id="rId88" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{8C3AFD1D-A396-4567-9BE9-2C6F3BD443A3}"/>
-    <hyperlink ref="C27" r:id="rId89" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{05A7FD04-8898-4CBA-BB0B-42517CF2250E}"/>
-    <hyperlink ref="C28" r:id="rId90" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{5B446320-3986-4FD3-B4E1-2D8A8D76C4E5}"/>
-    <hyperlink ref="D24" r:id="rId91" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{D7DCD68A-AD1B-4B45-96A0-90A784F93600}"/>
-    <hyperlink ref="D25" r:id="rId92" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{15FAE8CE-0018-466A-A9C0-8B81D3472E97}"/>
-    <hyperlink ref="D26" r:id="rId93" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{7496280B-88A5-45E1-819E-3F65CE11B497}"/>
-    <hyperlink ref="D27" r:id="rId94" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{A5E64E29-3F85-47A7-880B-B22E362ACA6E}"/>
-    <hyperlink ref="D28" r:id="rId95" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{167E72D5-C125-4C0F-8690-4B2DCCE93522}"/>
-    <hyperlink ref="M24" r:id="rId96" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{2756675E-1544-4A5B-8E2E-618B73C3DB48}"/>
-    <hyperlink ref="M25" r:id="rId97" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{F8EBE944-6F72-401D-BA64-57D2465AA448}"/>
-    <hyperlink ref="M26" r:id="rId98" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{4B11E9BF-9745-467E-9A42-906075C6F918}"/>
-    <hyperlink ref="M27" r:id="rId99" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{31DC0F91-F879-4D77-B9BD-B41DCC05A01B}"/>
-    <hyperlink ref="M28" r:id="rId100" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{BE49E191-6FC2-4BB8-A505-004D2962248D}"/>
-    <hyperlink ref="N24" r:id="rId101" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{EB96FFDB-5AC5-4D72-AC3F-4D25B26DA9C9}"/>
-    <hyperlink ref="N25" r:id="rId102" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{DEA69ED2-3599-4A5B-B2E9-52FAA7FF2733}"/>
-    <hyperlink ref="N26" r:id="rId103" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{1C216646-C036-46DF-A9E6-EA44C3DB5731}"/>
-    <hyperlink ref="N27" r:id="rId104" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{AA8A615C-F3CC-4347-80C6-C32E4BE3806A}"/>
-    <hyperlink ref="N28" r:id="rId105" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{196126A4-DB14-4100-8C39-FB8BDCACE687}"/>
-    <hyperlink ref="E29" r:id="rId106" xr:uid="{E335F074-0EE2-45FA-A095-FCB251CA0634}"/>
-    <hyperlink ref="E30" r:id="rId107" xr:uid="{A0BCB19D-5626-4A0E-B3C4-80162D28F6ED}"/>
-    <hyperlink ref="E31" r:id="rId108" xr:uid="{BB99D959-1230-4A23-9900-38DE5D085462}"/>
-    <hyperlink ref="E32" r:id="rId109" xr:uid="{8A54482B-B66F-44AD-B895-0537B34F04A2}"/>
-    <hyperlink ref="E33" r:id="rId110" xr:uid="{2CA45562-E246-46C2-ACE3-0C8EA40B0E5F}"/>
-    <hyperlink ref="E34" r:id="rId111" xr:uid="{98C67524-D052-4FC0-B847-661109D0596A}"/>
-    <hyperlink ref="C29" r:id="rId112" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{02A1665A-074C-4FA5-8923-AD17D39ABFB0}"/>
-    <hyperlink ref="D29" r:id="rId113" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{113E166F-A127-4E27-88EA-3206CE3E69F5}"/>
-    <hyperlink ref="C30" r:id="rId114" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{11A81250-7054-4219-9931-08E1128CCE50}"/>
-    <hyperlink ref="C31" r:id="rId115" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{062311E2-89D8-4110-9088-D4C88587A7C7}"/>
-    <hyperlink ref="C32" r:id="rId116" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{7160242D-4B30-4EE2-8318-61E278D6266A}"/>
-    <hyperlink ref="C33" r:id="rId117" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{DD11BC35-8C7E-4650-985A-128F83F8EB57}"/>
-    <hyperlink ref="C34" r:id="rId118" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{E8CE0AE0-D706-4CF7-A1FC-C21A857EB6B1}"/>
-    <hyperlink ref="D30" r:id="rId119" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{66B4329F-3405-45B8-A7CE-759A455BEC19}"/>
-    <hyperlink ref="D31" r:id="rId120" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{CB9BDCE3-CE65-4F86-8B27-FC632B21CDCD}"/>
-    <hyperlink ref="D32" r:id="rId121" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{3C65060D-1AD0-4FFF-8023-5D1B96691225}"/>
-    <hyperlink ref="D33" r:id="rId122" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{7CE3251A-B6A4-4A74-BCF7-4F46B034946C}"/>
-    <hyperlink ref="D34" r:id="rId123" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{A60A6EB9-E65C-4B96-8345-BE0A3A0D7007}"/>
-    <hyperlink ref="M30" r:id="rId124" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{8EF194F6-C671-4ABC-9CEB-29B38A53D212}"/>
-    <hyperlink ref="M31" r:id="rId125" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{F6CB9FD0-979C-413C-B166-E3CD409DC80F}"/>
-    <hyperlink ref="M32" r:id="rId126" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{C301036F-8C03-4656-8F89-45B38191B0A6}"/>
-    <hyperlink ref="M33" r:id="rId127" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{5A6CE3BE-73BC-45F6-9A56-02AA2E7CFA16}"/>
-    <hyperlink ref="M34" r:id="rId128" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{150A6411-F170-4B88-AF3B-772418E5A36E}"/>
-    <hyperlink ref="N30" r:id="rId129" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{DF6C7858-ADB4-47B9-A085-DBA82F9C1103}"/>
-    <hyperlink ref="N31" r:id="rId130" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{7497383E-44EA-481B-90BB-AA619CE0C190}"/>
-    <hyperlink ref="N32" r:id="rId131" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{E4071EDA-872F-48C7-B0A3-652FF5D0E13B}"/>
-    <hyperlink ref="N33" r:id="rId132" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{CFD83D30-5B1A-4BF9-BBB9-E79E275CE865}"/>
-    <hyperlink ref="N34" r:id="rId133" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{A027E2E8-CBCA-4782-80E9-E7B999CD29B3}"/>
-    <hyperlink ref="E35" r:id="rId134" xr:uid="{84F577D5-7073-4AE3-A785-B78D8AD8002C}"/>
-    <hyperlink ref="E36" r:id="rId135" xr:uid="{EDCD7022-5ECE-4529-B336-EAF34A2FD902}"/>
-    <hyperlink ref="E37" r:id="rId136" xr:uid="{07A9391F-6B71-4308-AEA3-B2C64C9144DF}"/>
-    <hyperlink ref="E38" r:id="rId137" xr:uid="{A32AC559-8F4E-485E-9A15-0D2740391411}"/>
-    <hyperlink ref="C35" r:id="rId138" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{8DD9BDBD-BDAF-4B93-A2E5-12164C91B510}"/>
-    <hyperlink ref="D35" r:id="rId139" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{A1311358-71EB-434E-9DDF-210CADD01D8D}"/>
-    <hyperlink ref="C36" r:id="rId140" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{39C4363A-D184-4C94-9E98-E7D65D458C9C}"/>
-    <hyperlink ref="C37" r:id="rId141" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{C29E12E8-1154-4F2D-B527-E4889CE8FF67}"/>
-    <hyperlink ref="C38" r:id="rId142" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{BF81F03B-6770-48A4-B4D8-52042FC7AEE1}"/>
-    <hyperlink ref="D36" r:id="rId143" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{71EC071A-B180-49D2-AB87-E5DDC6AAE281}"/>
-    <hyperlink ref="D37" r:id="rId144" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{B67B29A6-45F0-4151-9F49-3835D2BCA2A0}"/>
-    <hyperlink ref="D38" r:id="rId145" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{BDD86E3C-8509-4215-8B4B-32D819D1631D}"/>
-    <hyperlink ref="M36" r:id="rId146" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{69796C05-B9FA-4A79-9C3C-6AA6ABC2E335}"/>
-    <hyperlink ref="M37" r:id="rId147" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{9A4127DA-B6D0-4A4C-A2B5-83B77DC31F7E}"/>
-    <hyperlink ref="M38" r:id="rId148" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{2A28D8AD-BA19-44A1-860B-E61F9E3BFDBD}"/>
-    <hyperlink ref="N36" r:id="rId149" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{910564BC-A52B-41A0-B6BE-A03056A8B8D9}"/>
-    <hyperlink ref="N37" r:id="rId150" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{71A589B8-22FF-43A7-9031-0C3588868C60}"/>
-    <hyperlink ref="N38" r:id="rId151" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{95B91A41-D2A6-40BC-BB40-20F80FFFA943}"/>
-    <hyperlink ref="E39" r:id="rId152" xr:uid="{72827F80-ADD2-4B90-8BE0-8FB0DAE38BC1}"/>
-    <hyperlink ref="E40" r:id="rId153" xr:uid="{A284BC58-DE8E-4F9C-97AE-C63CA66C4099}"/>
-    <hyperlink ref="E41" r:id="rId154" xr:uid="{DF53376F-8C77-4AD0-A20A-ACF2E4BC25DC}"/>
-    <hyperlink ref="E42" r:id="rId155" xr:uid="{78E42607-3AF1-4B9F-968B-20A4B623F607}"/>
-    <hyperlink ref="C39" r:id="rId156" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{4D9B2911-DCCA-4E79-BA96-49890BCDBE9B}"/>
-    <hyperlink ref="C40" r:id="rId157" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{4AEC4540-E355-40E0-A7C7-958F7C165B22}"/>
-    <hyperlink ref="C41" r:id="rId158" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{FF4C0864-C2D1-450A-AD36-A6897E09F31F}"/>
-    <hyperlink ref="C42" r:id="rId159" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{29F42638-89D6-4555-B21B-69A10621C967}"/>
-    <hyperlink ref="D39" r:id="rId160" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{0D1DAB04-CB94-46CD-ADE4-65B51BC25CB8}"/>
-    <hyperlink ref="D40" r:id="rId161" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{A9AEBA75-5CD0-4025-A6E3-0E761A1F6440}"/>
-    <hyperlink ref="D41" r:id="rId162" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{039F3CE3-DF2A-49D8-AF50-A3BB4C8CC4C9}"/>
-    <hyperlink ref="D42" r:id="rId163" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{41DB8848-050A-4D86-9168-E759DA66B274}"/>
-    <hyperlink ref="M41" r:id="rId164" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70933" xr:uid="{CEF16B7C-FC73-4261-8B05-051C73FC8D6E}"/>
-    <hyperlink ref="N41" r:id="rId165" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70933" xr:uid="{BE2146B4-987A-4DC5-8C26-E79238499F4B}"/>
-    <hyperlink ref="M42" r:id="rId166" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121935" xr:uid="{BCA14BB0-AA52-4A57-84C5-6EBD27D7269E}"/>
-    <hyperlink ref="N42" r:id="rId167" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121935" xr:uid="{05918D93-8DAC-45FE-9C7B-AB1ED6FAA72C}"/>
-    <hyperlink ref="M39" r:id="rId168" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70934" xr:uid="{F297D27E-075F-4249-96AA-FA28EC8DA531}"/>
-    <hyperlink ref="M40" r:id="rId169" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121936" xr:uid="{86391E53-913D-4E5F-AFB2-C620C7A57B7D}"/>
-    <hyperlink ref="N39" r:id="rId170" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70934" xr:uid="{BC3B8A0A-DDAF-4BFB-B4D7-F4B5580E7ADC}"/>
-    <hyperlink ref="N40" r:id="rId171" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121936" xr:uid="{6784A0EE-E9F1-4C0E-AC9F-8102AB6D6CF0}"/>
-    <hyperlink ref="E43" r:id="rId172" xr:uid="{DF73F7D1-A252-4C34-8963-15ECA76BE49D}"/>
-    <hyperlink ref="E44" r:id="rId173" xr:uid="{F3A8EACE-D0C1-49C0-AFC6-D9CEB606E2AE}"/>
-    <hyperlink ref="C43" r:id="rId174" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{24840CA9-2C11-462E-8BED-A3C69ECE864C}"/>
-    <hyperlink ref="C44" r:id="rId175" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{4E70A29F-251C-4A26-8D35-DCDD1A46B1CC}"/>
-    <hyperlink ref="D43" r:id="rId176" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{1166AF66-19EE-4616-B695-8C1F70C787FF}"/>
-    <hyperlink ref="D44" r:id="rId177" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{7718F7B2-0CB4-4B73-BD4D-FC0E3D3B5483}"/>
-    <hyperlink ref="M43" r:id="rId178" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{9C8A405A-DE6B-483F-B181-A8099987BA4C}"/>
-    <hyperlink ref="M44" r:id="rId179" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{13A8BD0C-1C92-4D56-8547-C9D24530EB47}"/>
-    <hyperlink ref="N43" r:id="rId180" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{9BC22070-1954-4808-8B82-854767CE9CD9}"/>
-    <hyperlink ref="N44" r:id="rId181" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{670D7E3F-44F1-42F9-915E-5FF86EABDBD6}"/>
+    <hyperlink ref="E45:E46" r:id="rId3" display="C101875" xr:uid="{398CB222-FFB6-4886-AD63-F0F2E624F260}"/>
+    <hyperlink ref="M6" r:id="rId4" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{896DC4F1-DF65-4011-9B03-E0674AFAC8C4}"/>
+    <hyperlink ref="M7" r:id="rId5" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{93DF656C-8BE2-47FF-B0DD-459546102C09}"/>
+    <hyperlink ref="M8" r:id="rId6" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{AE484A27-8173-4D46-A501-A1F64F080C70}"/>
+    <hyperlink ref="M9" r:id="rId7" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{C14D6E34-E8FD-44FF-B3DB-7F12C1F84BDE}"/>
+    <hyperlink ref="M10" r:id="rId8" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{A2B00BFE-FE92-496A-96AF-E30D65A456E3}"/>
+    <hyperlink ref="N6" r:id="rId9" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{B1E72DFF-B4B1-430E-B407-6A25878B0549}"/>
+    <hyperlink ref="N7" r:id="rId10" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{D754E056-30A5-47EA-AC74-382FFBD432C4}"/>
+    <hyperlink ref="N8" r:id="rId11" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{09BBE273-D4C4-4D28-9DE4-2FF26D7D9189}"/>
+    <hyperlink ref="N9" r:id="rId12" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{EB0FB6B9-0BF7-49FF-B900-DBD30761AFA6}"/>
+    <hyperlink ref="N10" r:id="rId13" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{D920685A-3C0E-4032-ACF3-440FCE765A8F}"/>
+    <hyperlink ref="C6:C10" r:id="rId14" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{7AA7AF3B-87E8-4F7F-83E2-98952D9688CA}"/>
+    <hyperlink ref="D6" r:id="rId15" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{F2340903-556A-4A62-B6E7-5F6ADD7401A3}"/>
+    <hyperlink ref="D7" r:id="rId16" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{782EF0E7-EC00-48BD-95DF-535E77B088CC}"/>
+    <hyperlink ref="D8" r:id="rId17" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{C311B609-F691-4605-8214-CE7DD6E909C9}"/>
+    <hyperlink ref="D9" r:id="rId18" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{9B53C322-B72C-4689-9DF3-5F56BF2775FB}"/>
+    <hyperlink ref="D10" r:id="rId19" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102067" xr:uid="{F101326F-B7C1-4B35-8AED-825963429BB3}"/>
+    <hyperlink ref="M12" r:id="rId20" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{E05E0617-0833-4A19-A106-5CE1E0D1ECA9}"/>
+    <hyperlink ref="M13" r:id="rId21" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{79A22C9F-4FBE-4445-B29A-38CA410B17C5}"/>
+    <hyperlink ref="M14" r:id="rId22" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{EA1D8749-A366-4598-8B9D-49F94FE10014}"/>
+    <hyperlink ref="M15" r:id="rId23" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{74AD9EE3-1C0C-46D4-A1CC-8D8074827BC5}"/>
+    <hyperlink ref="M16" r:id="rId24" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{8DE5F1C9-1F14-4A04-8C5E-4CE5A8BDA62C}"/>
+    <hyperlink ref="N12" r:id="rId25" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{68DFB1A0-1240-4E2A-8DBC-89312B0A85BA}"/>
+    <hyperlink ref="N13" r:id="rId26" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{D2F44CC3-8C8D-4F42-8665-900A2CF6025F}"/>
+    <hyperlink ref="N14" r:id="rId27" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{18396755-7AFA-4965-8767-928C3DFE2CE2}"/>
+    <hyperlink ref="N15" r:id="rId28" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{7E4D7FC9-8AF4-4A2E-B7EC-3F2FCF9D267D}"/>
+    <hyperlink ref="N16" r:id="rId29" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{A4D7A321-D16A-4EE2-90D0-D2788DF6735D}"/>
+    <hyperlink ref="C11" r:id="rId30" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{F0FC45E1-CE08-42A4-A57C-CCC11071591E}"/>
+    <hyperlink ref="D11" r:id="rId31" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{7CB1F031-FD7B-4193-8E41-32769B71FADB}"/>
+    <hyperlink ref="E11" r:id="rId32" xr:uid="{CEAA5FE5-EE24-449F-92DB-CE89410EE678}"/>
+    <hyperlink ref="C12" r:id="rId33" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{5187EF10-F8F4-426B-926B-236BD25BD950}"/>
+    <hyperlink ref="C13" r:id="rId34" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{1DDB3F3A-D57B-49EF-8CBB-5030ED7C9495}"/>
+    <hyperlink ref="C14" r:id="rId35" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{C585C05C-C745-4388-BE5A-275AB9D3759C}"/>
+    <hyperlink ref="C15" r:id="rId36" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{05DE69A9-3B79-4A8B-9026-6366CCB78C98}"/>
+    <hyperlink ref="C16" r:id="rId37" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{734A08DE-2B48-48EA-893A-56BFE8802F24}"/>
+    <hyperlink ref="D12" r:id="rId38" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{100D9596-1796-466C-AD28-4B64C62D1056}"/>
+    <hyperlink ref="D13" r:id="rId39" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{372D9409-075C-4BE0-B293-9987959EFC40}"/>
+    <hyperlink ref="D14" r:id="rId40" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{355C1983-B53A-4BBC-93EC-53BB5BAE9D45}"/>
+    <hyperlink ref="D15" r:id="rId41" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{E37EC414-EE0E-4DEB-9B5D-679A9362D4B2}"/>
+    <hyperlink ref="D16" r:id="rId42" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102068" xr:uid="{2485CBCA-FB72-4F57-8155-AE6D31701C4F}"/>
+    <hyperlink ref="E12" r:id="rId43" xr:uid="{1216F399-621E-438D-99EA-4234EDBAF223}"/>
+    <hyperlink ref="E13" r:id="rId44" xr:uid="{9EAA417D-CD4C-4A1D-83FA-68D475B2A15C}"/>
+    <hyperlink ref="E14" r:id="rId45" xr:uid="{B7E9A843-A76F-487D-9691-9DAAA1914569}"/>
+    <hyperlink ref="E15" r:id="rId46" xr:uid="{558CE2C5-D900-41FC-8AE6-41FFB94F65D3}"/>
+    <hyperlink ref="E16" r:id="rId47" xr:uid="{45CAC3FD-1350-4E0D-9D85-415A0EFC9364}"/>
+    <hyperlink ref="C17" r:id="rId48" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{C377821A-00FE-449C-9511-C3C14D4BEB5E}"/>
+    <hyperlink ref="D17" r:id="rId49" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{399708CE-8AE6-4534-B4C6-9FE77C573F16}"/>
+    <hyperlink ref="E17" r:id="rId50" xr:uid="{9B5F9197-1795-4A8A-9C40-AF42B1AC662F}"/>
+    <hyperlink ref="C18" r:id="rId51" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{C15D1259-910D-41D8-A306-84C18171E895}"/>
+    <hyperlink ref="C19" r:id="rId52" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{ED8B6859-A111-4228-9C4B-F0AE53DCD105}"/>
+    <hyperlink ref="C20" r:id="rId53" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{606A9D0E-11B9-4968-B87D-B7F874324B7A}"/>
+    <hyperlink ref="C21" r:id="rId54" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{842CF38B-E89C-4301-9FBC-147D45FB1763}"/>
+    <hyperlink ref="C22" r:id="rId55" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{A40A9A3E-C063-41E4-AA9B-9F1FABB7407C}"/>
+    <hyperlink ref="D18" r:id="rId56" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{FC256C42-A764-4EAF-BFFE-E52B3C5E1D8E}"/>
+    <hyperlink ref="D19" r:id="rId57" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{7E3D0F25-A1D6-45A6-9BFB-53F3D62D0C0A}"/>
+    <hyperlink ref="D20" r:id="rId58" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{D3BE6390-A9D5-49BB-AC04-C8E97DAC9F5C}"/>
+    <hyperlink ref="D21" r:id="rId59" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{83D025E3-C116-43AF-AC42-4AA17F8E3506}"/>
+    <hyperlink ref="D22" r:id="rId60" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102069" xr:uid="{42361B39-DC74-4CB1-87F9-097B8212A229}"/>
+    <hyperlink ref="E18" r:id="rId61" xr:uid="{71B436F6-E069-4A85-81E7-A22110EB2B77}"/>
+    <hyperlink ref="E19" r:id="rId62" xr:uid="{842037F2-DC95-4D2A-91A5-E160F0FCC3E4}"/>
+    <hyperlink ref="E20" r:id="rId63" xr:uid="{BD02CBEB-5B86-431D-BF59-664562A71BBE}"/>
+    <hyperlink ref="E21" r:id="rId64" xr:uid="{CC7022FD-2963-4BD1-9BE1-15F7923BC389}"/>
+    <hyperlink ref="E22" r:id="rId65" xr:uid="{4BA3FA06-8167-41B6-A7E1-6363BF5EE478}"/>
+    <hyperlink ref="M18" r:id="rId66" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{B54543CF-307D-4BEA-A9AE-98B85078C0F7}"/>
+    <hyperlink ref="M19" r:id="rId67" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{DF5B25AF-7871-42F8-9DCF-3785897C66DB}"/>
+    <hyperlink ref="M20" r:id="rId68" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{A77DCE78-456B-488C-B56E-8A2336F86AEA}"/>
+    <hyperlink ref="M21" r:id="rId69" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{0B6EF566-E3D8-48E2-9209-4BDFD9767CAD}"/>
+    <hyperlink ref="M22" r:id="rId70" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{F3BF07CD-ECE5-4966-A481-2B9686B745A1}"/>
+    <hyperlink ref="N18" r:id="rId71" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{6469BE10-C574-4046-B09B-AFF08B922361}"/>
+    <hyperlink ref="N19" r:id="rId72" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{7F7CB66A-8BBD-4FD3-B41A-04E040EDE4B0}"/>
+    <hyperlink ref="N20" r:id="rId73" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{0363794B-2DC8-415D-922A-57013CDBB286}"/>
+    <hyperlink ref="N21" r:id="rId74" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{23930C1D-F6AF-427C-B5D7-F1A508B45DB3}"/>
+    <hyperlink ref="N22" r:id="rId75" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{84440F3E-A265-47BE-96C3-85A90813CC18}"/>
+    <hyperlink ref="E23" r:id="rId76" xr:uid="{CE3F6E15-1AB6-4884-94AB-6456A2B86C4D}"/>
+    <hyperlink ref="E24" r:id="rId77" xr:uid="{648F0A91-8299-4FCF-92A2-C0D83104E8E1}"/>
+    <hyperlink ref="E25" r:id="rId78" xr:uid="{B4038A3F-4845-4108-968C-8D667434F0F4}"/>
+    <hyperlink ref="E26" r:id="rId79" xr:uid="{2F59D425-3FD7-475B-862B-BD6A1421E2B9}"/>
+    <hyperlink ref="E27" r:id="rId80" xr:uid="{79A9013A-2563-4EB8-B73A-F718D1A89EC3}"/>
+    <hyperlink ref="E28" r:id="rId81" xr:uid="{4C2BE266-4DA8-4E93-80C6-3AC0B7915739}"/>
+    <hyperlink ref="C23" r:id="rId82" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{D571D7B8-C829-4AE3-9F3E-0F0636065001}"/>
+    <hyperlink ref="D23" r:id="rId83" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{405F5374-2E3C-45CE-B33B-2F74DBFD4EC2}"/>
+    <hyperlink ref="C24" r:id="rId84" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{344E7816-7E51-42AF-A214-DB248DC6F1AD}"/>
+    <hyperlink ref="C25" r:id="rId85" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{C17EBD83-ECDC-43F7-A9A2-662FD4C84510}"/>
+    <hyperlink ref="C26" r:id="rId86" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{8C3AFD1D-A396-4567-9BE9-2C6F3BD443A3}"/>
+    <hyperlink ref="C27" r:id="rId87" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{05A7FD04-8898-4CBA-BB0B-42517CF2250E}"/>
+    <hyperlink ref="C28" r:id="rId88" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{5B446320-3986-4FD3-B4E1-2D8A8D76C4E5}"/>
+    <hyperlink ref="D24" r:id="rId89" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{D7DCD68A-AD1B-4B45-96A0-90A784F93600}"/>
+    <hyperlink ref="D25" r:id="rId90" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{15FAE8CE-0018-466A-A9C0-8B81D3472E97}"/>
+    <hyperlink ref="D26" r:id="rId91" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{7496280B-88A5-45E1-819E-3F65CE11B497}"/>
+    <hyperlink ref="D27" r:id="rId92" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{A5E64E29-3F85-47A7-880B-B22E362ACA6E}"/>
+    <hyperlink ref="D28" r:id="rId93" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102070" xr:uid="{167E72D5-C125-4C0F-8690-4B2DCCE93522}"/>
+    <hyperlink ref="M24" r:id="rId94" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{2756675E-1544-4A5B-8E2E-618B73C3DB48}"/>
+    <hyperlink ref="M25" r:id="rId95" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{F8EBE944-6F72-401D-BA64-57D2465AA448}"/>
+    <hyperlink ref="M26" r:id="rId96" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{4B11E9BF-9745-467E-9A42-906075C6F918}"/>
+    <hyperlink ref="M27" r:id="rId97" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{31DC0F91-F879-4D77-B9BD-B41DCC05A01B}"/>
+    <hyperlink ref="M28" r:id="rId98" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{BE49E191-6FC2-4BB8-A505-004D2962248D}"/>
+    <hyperlink ref="N24" r:id="rId99" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{EB96FFDB-5AC5-4D72-AC3F-4D25B26DA9C9}"/>
+    <hyperlink ref="N25" r:id="rId100" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{DEA69ED2-3599-4A5B-B2E9-52FAA7FF2733}"/>
+    <hyperlink ref="N26" r:id="rId101" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{1C216646-C036-46DF-A9E6-EA44C3DB5731}"/>
+    <hyperlink ref="N27" r:id="rId102" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{AA8A615C-F3CC-4347-80C6-C32E4BE3806A}"/>
+    <hyperlink ref="N28" r:id="rId103" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{196126A4-DB14-4100-8C39-FB8BDCACE687}"/>
+    <hyperlink ref="E29" r:id="rId104" xr:uid="{E335F074-0EE2-45FA-A095-FCB251CA0634}"/>
+    <hyperlink ref="E30" r:id="rId105" xr:uid="{A0BCB19D-5626-4A0E-B3C4-80162D28F6ED}"/>
+    <hyperlink ref="E31" r:id="rId106" xr:uid="{BB99D959-1230-4A23-9900-38DE5D085462}"/>
+    <hyperlink ref="E32" r:id="rId107" xr:uid="{8A54482B-B66F-44AD-B895-0537B34F04A2}"/>
+    <hyperlink ref="E33" r:id="rId108" xr:uid="{2CA45562-E246-46C2-ACE3-0C8EA40B0E5F}"/>
+    <hyperlink ref="E34" r:id="rId109" xr:uid="{98C67524-D052-4FC0-B847-661109D0596A}"/>
+    <hyperlink ref="C29" r:id="rId110" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{02A1665A-074C-4FA5-8923-AD17D39ABFB0}"/>
+    <hyperlink ref="D29" r:id="rId111" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{113E166F-A127-4E27-88EA-3206CE3E69F5}"/>
+    <hyperlink ref="C30" r:id="rId112" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{11A81250-7054-4219-9931-08E1128CCE50}"/>
+    <hyperlink ref="C31" r:id="rId113" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{062311E2-89D8-4110-9088-D4C88587A7C7}"/>
+    <hyperlink ref="C32" r:id="rId114" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{7160242D-4B30-4EE2-8318-61E278D6266A}"/>
+    <hyperlink ref="C33" r:id="rId115" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{DD11BC35-8C7E-4650-985A-128F83F8EB57}"/>
+    <hyperlink ref="C34" r:id="rId116" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{E8CE0AE0-D706-4CF7-A1FC-C21A857EB6B1}"/>
+    <hyperlink ref="D30" r:id="rId117" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{66B4329F-3405-45B8-A7CE-759A455BEC19}"/>
+    <hyperlink ref="D31" r:id="rId118" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{CB9BDCE3-CE65-4F86-8B27-FC632B21CDCD}"/>
+    <hyperlink ref="D32" r:id="rId119" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{3C65060D-1AD0-4FFF-8023-5D1B96691225}"/>
+    <hyperlink ref="D33" r:id="rId120" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{7CE3251A-B6A4-4A74-BCF7-4F46B034946C}"/>
+    <hyperlink ref="D34" r:id="rId121" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102071" xr:uid="{A60A6EB9-E65C-4B96-8345-BE0A3A0D7007}"/>
+    <hyperlink ref="M30" r:id="rId122" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{8EF194F6-C671-4ABC-9CEB-29B38A53D212}"/>
+    <hyperlink ref="M31" r:id="rId123" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{F6CB9FD0-979C-413C-B166-E3CD409DC80F}"/>
+    <hyperlink ref="M32" r:id="rId124" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{C301036F-8C03-4656-8F89-45B38191B0A6}"/>
+    <hyperlink ref="M33" r:id="rId125" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{5A6CE3BE-73BC-45F6-9A56-02AA2E7CFA16}"/>
+    <hyperlink ref="M34" r:id="rId126" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{150A6411-F170-4B88-AF3B-772418E5A36E}"/>
+    <hyperlink ref="N30" r:id="rId127" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{DF6C7858-ADB4-47B9-A085-DBA82F9C1103}"/>
+    <hyperlink ref="N31" r:id="rId128" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{7497383E-44EA-481B-90BB-AA619CE0C190}"/>
+    <hyperlink ref="N32" r:id="rId129" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{E4071EDA-872F-48C7-B0A3-652FF5D0E13B}"/>
+    <hyperlink ref="N33" r:id="rId130" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{CFD83D30-5B1A-4BF9-BBB9-E79E275CE865}"/>
+    <hyperlink ref="N34" r:id="rId131" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{A027E2E8-CBCA-4782-80E9-E7B999CD29B3}"/>
+    <hyperlink ref="E35" r:id="rId132" xr:uid="{84F577D5-7073-4AE3-A785-B78D8AD8002C}"/>
+    <hyperlink ref="E36" r:id="rId133" xr:uid="{EDCD7022-5ECE-4529-B336-EAF34A2FD902}"/>
+    <hyperlink ref="E37" r:id="rId134" xr:uid="{07A9391F-6B71-4308-AEA3-B2C64C9144DF}"/>
+    <hyperlink ref="E38" r:id="rId135" xr:uid="{A32AC559-8F4E-485E-9A15-0D2740391411}"/>
+    <hyperlink ref="C35" r:id="rId136" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{8DD9BDBD-BDAF-4B93-A2E5-12164C91B510}"/>
+    <hyperlink ref="D35" r:id="rId137" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{A1311358-71EB-434E-9DDF-210CADD01D8D}"/>
+    <hyperlink ref="C36" r:id="rId138" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{39C4363A-D184-4C94-9E98-E7D65D458C9C}"/>
+    <hyperlink ref="C37" r:id="rId139" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{C29E12E8-1154-4F2D-B527-E4889CE8FF67}"/>
+    <hyperlink ref="C38" r:id="rId140" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{BF81F03B-6770-48A4-B4D8-52042FC7AEE1}"/>
+    <hyperlink ref="D36" r:id="rId141" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{71EC071A-B180-49D2-AB87-E5DDC6AAE281}"/>
+    <hyperlink ref="D37" r:id="rId142" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{B67B29A6-45F0-4151-9F49-3835D2BCA2A0}"/>
+    <hyperlink ref="D38" r:id="rId143" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{BDD86E3C-8509-4215-8B4B-32D819D1631D}"/>
+    <hyperlink ref="M36" r:id="rId144" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{69796C05-B9FA-4A79-9C3C-6AA6ABC2E335}"/>
+    <hyperlink ref="M37" r:id="rId145" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{9A4127DA-B6D0-4A4C-A2B5-83B77DC31F7E}"/>
+    <hyperlink ref="M38" r:id="rId146" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{2A28D8AD-BA19-44A1-860B-E61F9E3BFDBD}"/>
+    <hyperlink ref="N36" r:id="rId147" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C46126" xr:uid="{910564BC-A52B-41A0-B6BE-A03056A8B8D9}"/>
+    <hyperlink ref="N37" r:id="rId148" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC91106&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896525143%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=0Vi3nSh8SuAHyTipeD%2FSF96sdAcbaufgT5ovyzNz%2B9I%3D&amp;reserved=0" xr:uid="{71A589B8-22FF-43A7-9031-0C3588868C60}"/>
+    <hyperlink ref="N38" r:id="rId149" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC25372&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896542833%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=4vZ1BHmFQU843PBlUz7GUmPeqDXM3OIxiJBsjXMJOhs%3D&amp;reserved=0" xr:uid="{95B91A41-D2A6-40BC-BB40-20F80FFFA943}"/>
+    <hyperlink ref="E39" r:id="rId150" xr:uid="{72827F80-ADD2-4B90-8BE0-8FB0DAE38BC1}"/>
+    <hyperlink ref="E40" r:id="rId151" xr:uid="{A284BC58-DE8E-4F9C-97AE-C63CA66C4099}"/>
+    <hyperlink ref="E41" r:id="rId152" xr:uid="{DF53376F-8C77-4AD0-A20A-ACF2E4BC25DC}"/>
+    <hyperlink ref="E42" r:id="rId153" xr:uid="{78E42607-3AF1-4B9F-968B-20A4B623F607}"/>
+    <hyperlink ref="C39" r:id="rId154" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{4D9B2911-DCCA-4E79-BA96-49890BCDBE9B}"/>
+    <hyperlink ref="C40" r:id="rId155" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{4AEC4540-E355-40E0-A7C7-958F7C165B22}"/>
+    <hyperlink ref="C41" r:id="rId156" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{FF4C0864-C2D1-450A-AD36-A6897E09F31F}"/>
+    <hyperlink ref="C42" r:id="rId157" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{29F42638-89D6-4555-B21B-69A10621C967}"/>
+    <hyperlink ref="D39" r:id="rId158" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{0D1DAB04-CB94-46CD-ADE4-65B51BC25CB8}"/>
+    <hyperlink ref="D40" r:id="rId159" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{A9AEBA75-5CD0-4025-A6E3-0E761A1F6440}"/>
+    <hyperlink ref="D41" r:id="rId160" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{039F3CE3-DF2A-49D8-AF50-A3BB4C8CC4C9}"/>
+    <hyperlink ref="D42" r:id="rId161" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{41DB8848-050A-4D86-9168-E759DA66B274}"/>
+    <hyperlink ref="M41" r:id="rId162" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70933" xr:uid="{CEF16B7C-FC73-4261-8B05-051C73FC8D6E}"/>
+    <hyperlink ref="N41" r:id="rId163" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70933" xr:uid="{BE2146B4-987A-4DC5-8C26-E79238499F4B}"/>
+    <hyperlink ref="M42" r:id="rId164" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121935" xr:uid="{BCA14BB0-AA52-4A57-84C5-6EBD27D7269E}"/>
+    <hyperlink ref="N42" r:id="rId165" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121935" xr:uid="{05918D93-8DAC-45FE-9C7B-AB1ED6FAA72C}"/>
+    <hyperlink ref="M39" r:id="rId166" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70934" xr:uid="{F297D27E-075F-4249-96AA-FA28EC8DA531}"/>
+    <hyperlink ref="M40" r:id="rId167" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121936" xr:uid="{86391E53-913D-4E5F-AFB2-C620C7A57B7D}"/>
+    <hyperlink ref="N39" r:id="rId168" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C70934" xr:uid="{BC3B8A0A-DDAF-4BFB-B4D7-F4B5580E7ADC}"/>
+    <hyperlink ref="N40" r:id="rId169" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C121936" xr:uid="{6784A0EE-E9F1-4C0E-AC9F-8102AB6D6CF0}"/>
+    <hyperlink ref="E43" r:id="rId170" xr:uid="{DF73F7D1-A252-4C34-8963-15ECA76BE49D}"/>
+    <hyperlink ref="E44" r:id="rId171" xr:uid="{F3A8EACE-D0C1-49C0-AFC6-D9CEB606E2AE}"/>
+    <hyperlink ref="C43" r:id="rId172" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{24840CA9-2C11-462E-8BED-A3C69ECE864C}"/>
+    <hyperlink ref="C44" r:id="rId173" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{4E70A29F-251C-4A26-8D35-DCDD1A46B1CC}"/>
+    <hyperlink ref="D43" r:id="rId174" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{1166AF66-19EE-4616-B695-8C1F70C787FF}"/>
+    <hyperlink ref="D44" r:id="rId175" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C102072" xr:uid="{7718F7B2-0CB4-4B73-BD4D-FC0E3D3B5483}"/>
+    <hyperlink ref="M43" r:id="rId176" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{9C8A405A-DE6B-483F-B181-A8099987BA4C}"/>
+    <hyperlink ref="M44" r:id="rId177" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{13A8BD0C-1C92-4D56-8547-C9D24530EB47}"/>
+    <hyperlink ref="N43" r:id="rId178" display="https://nam12.safelinks.protection.outlook.com/?url=https%3A%2F%2Fevsexplore.semantics.cancer.gov%2Fevsexplore%2Fconcept%2Fncit%2FC82515&amp;data=05%7C02%7Crbaker%40cdisc.org%7C1c3385d2bbeb42bea3fa08dda209bd48%7C078244a1de674c9e9088986d7f110a37%7C0%7C0%7C638844884896575345%7CUnknown%7CTWFpbGZsb3d8eyJFbXB0eU1hcGkiOnRydWUsIlYiOiIwLjAuMDAwMCIsIlAiOiJXaW4zMiIsIkFOIjoiTWFpbCIsIldUIjoyfQ%3D%3D%7C0%7C%7C%7C&amp;sdata=ckuM5Oom1yNrMeNTESwBXIWwcOgSu4NUbETHM20hpgY%3D&amp;reserved=0" xr:uid="{9BC22070-1954-4808-8B82-854767CE9CD9}"/>
+    <hyperlink ref="N44" r:id="rId179" display="https://evsexplore.semantics.cancer.gov/evsexplore/concept/ncit/C117044" xr:uid="{670D7E3F-44F1-42F9-915E-5FF86EABDBD6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId182"/>
+  <legacyDrawing r:id="rId180"/>
 </worksheet>
 </file>
 
@@ -3285,896 +3252,896 @@
   <sheetData>
     <row r="1" spans="1:33" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L1" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O1" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P1" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="U1" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="W1" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X1" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y1" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="Z1" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AA1" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AG1" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L2" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T2" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U2" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AA2" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD2" s="17"/>
       <c r="AE2" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF2" s="17"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>122</v>
-      </c>
       <c r="M3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U3" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V3" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AD3" s="17"/>
       <c r="AE3" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF3" s="17"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G4" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U4" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V4" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB4" s="17"/>
       <c r="AD4" s="17"/>
       <c r="AE4" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF4" s="17"/>
     </row>
     <row r="5" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U5" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V5" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W5" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X5">
         <v>60</v>
       </c>
       <c r="AA5" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB5" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC5" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD5" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE5" s="17"/>
       <c r="AF5" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P6" s="23"/>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T6" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U6" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V6" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W6" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X6">
         <v>1</v>
       </c>
       <c r="AA6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB6" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC6" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD6" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE6" s="17"/>
       <c r="AF6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P7" s="23"/>
       <c r="R7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T7" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U7" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W7" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X7">
         <v>1</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC7" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD7" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE7" s="17"/>
       <c r="AF7" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P8" s="23"/>
       <c r="R8" t="s">
+        <v>100</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="U8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB8" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC8" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="T8" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="V8" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB8" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="AD8" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P9" s="23"/>
       <c r="Q9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T9" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U9" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC9" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD9" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="21"/>
       <c r="D10" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T10" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V10" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W10" s="8"/>
       <c r="X10" s="8"/>
       <c r="Y10" s="8"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
       <c r="AD10" s="17"/>
       <c r="AE10" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF10" s="17"/>
       <c r="AG10" s="8"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J11" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K11" s="8"/>
       <c r="L11" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
       <c r="P11" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T11" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V11" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W11" s="8"/>
       <c r="X11" s="8"/>
       <c r="Y11" s="8"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
       <c r="AD11" s="17"/>
       <c r="AE11" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF11" s="17"/>
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K12" s="8"/>
       <c r="L12" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
       <c r="P12" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T12" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V12" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W12" s="8"/>
       <c r="X12" s="8"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB12" s="17"/>
       <c r="AC12" s="8"/>
       <c r="AD12" s="17"/>
       <c r="AE12" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF12" s="17"/>
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:33" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T13" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U13" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V13" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W13" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X13" s="8">
         <v>60</v>
@@ -4182,78 +4149,78 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB13" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC13" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD13" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="17"/>
       <c r="AF13" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG13" s="8"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="O14" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="8"/>
       <c r="R14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S14" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T14" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U14" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V14" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W14" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X14" s="8">
         <v>1</v>
@@ -4261,78 +4228,78 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB14" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC14" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD14" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE14" s="17"/>
       <c r="AF14" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG14" s="8"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="8"/>
       <c r="R15" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S15" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T15" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U15" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V15" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W15" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X15" s="8">
         <v>1</v>
@@ -4340,51 +4307,51 @@
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC15" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD15" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE15" s="17"/>
       <c r="AF15" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG15" s="8"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -4394,35 +4361,35 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="8"/>
       <c r="R16" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T16" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U16" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V16" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W16" s="8"/>
       <c r="X16" s="8"/>
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC16" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD16" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
@@ -4430,32 +4397,32 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
@@ -4464,38 +4431,38 @@
       <c r="O17" s="8"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S17" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T17" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U17" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V17" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W17" s="8"/>
       <c r="X17" s="8"/>
       <c r="Y17" s="8"/>
       <c r="Z17" s="8"/>
       <c r="AA17" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC17" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD17" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
@@ -4503,280 +4470,280 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="8"/>
       <c r="P18" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S18" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T18" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U18" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V18" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
       <c r="AD18" s="17"/>
       <c r="AE18" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF18" s="17"/>
       <c r="AG18" s="8"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="8"/>
       <c r="P19" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S19" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T19" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U19" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V19" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
       <c r="AD19" s="17"/>
       <c r="AE19" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF19" s="17"/>
       <c r="AG19" s="8"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="8"/>
       <c r="P20" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T20" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U20" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V20" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB20" s="17"/>
       <c r="AC20" s="8"/>
       <c r="AD20" s="17"/>
       <c r="AE20" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF20" s="17"/>
       <c r="AG20" s="8"/>
     </row>
     <row r="21" spans="1:33" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G21" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P21" s="8"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T21" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U21" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V21" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W21" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X21" s="8">
         <v>60</v>
@@ -4784,78 +4751,78 @@
       <c r="Y21" s="8"/>
       <c r="Z21" s="1"/>
       <c r="AA21" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC21" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD21" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE21" s="17"/>
       <c r="AF21" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG21" s="8"/>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G22" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
       <c r="R22" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T22" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U22" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V22" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W22" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X22" s="8">
         <v>1</v>
@@ -4863,78 +4830,78 @@
       <c r="Y22" s="8"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB22" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC22" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD22" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE22" s="17"/>
       <c r="AF22" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG22" s="8"/>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G23" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S23" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T23" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U23" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V23" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W23" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X23" s="8">
         <v>1</v>
@@ -4942,51 +4909,51 @@
       <c r="Y23" s="8"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB23" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC23" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD23" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE23" s="17"/>
       <c r="AF23" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG23" s="8"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G24" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -4996,35 +4963,35 @@
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
       <c r="R24" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S24" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U24" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V24" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB24" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC24" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE24" s="8"/>
       <c r="AF24" s="8"/>
@@ -5032,32 +4999,32 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -5066,38 +5033,38 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S25" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U25" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V25" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB25" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC25" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD25" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
@@ -5105,280 +5072,280 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G26" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K26" s="8"/>
       <c r="L26" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="R26" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S26" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T26" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U26" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V26" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W26" s="8"/>
       <c r="X26" s="8"/>
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF26" s="17"/>
       <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G27" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K27" s="8"/>
       <c r="L27" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R27" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S27" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U27" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V27" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W27" s="8"/>
       <c r="X27" s="8"/>
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF27" s="17"/>
       <c r="AG27" s="8"/>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G28" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M28" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
       <c r="P28" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R28" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S28" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U28" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V28" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB28" s="17"/>
       <c r="AC28" s="8"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF28" s="17"/>
       <c r="AG28" s="8"/>
     </row>
     <row r="29" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G29" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J29" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S29" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U29" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V29" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W29" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X29" s="8">
         <v>60</v>
@@ -5386,78 +5353,78 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB29" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC29" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD29" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE29" s="17"/>
       <c r="AF29" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S30" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U30" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V30" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W30" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X30" s="8">
         <v>1</v>
@@ -5465,78 +5432,78 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB30" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC30" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD30" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE30" s="17"/>
       <c r="AF30" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J31" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S31" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U31" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V31" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W31" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X31" s="8">
         <v>1</v>
@@ -5544,51 +5511,51 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB31" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC31" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD31" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE31" s="17"/>
       <c r="AF31" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG31" s="8"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G32" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -5598,35 +5565,35 @@
       <c r="P32" s="8"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S32" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U32" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V32" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB32" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC32" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD32" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE32" s="8"/>
       <c r="AF32" s="8"/>
@@ -5634,32 +5601,32 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -5668,38 +5635,38 @@
       <c r="O33" s="1"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD33" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE33" s="8"/>
       <c r="AF33" s="8"/>
@@ -5707,280 +5674,280 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M34" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="1"/>
       <c r="P34" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R34" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S34" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U34" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V34" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF34" s="17"/>
       <c r="AG34" s="8"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C35" s="21"/>
       <c r="D35" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="1"/>
       <c r="P35" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="R35" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S35" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U35" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V35" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W35" s="8"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF35" s="17"/>
       <c r="AG35" s="8"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M36" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="1"/>
       <c r="P36" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R36" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S36" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U36" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V36" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB36" s="17"/>
       <c r="AC36" s="8"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="8"/>
     </row>
     <row r="37" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B37" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S37" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U37" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V37" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W37" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="X37" s="8">
         <v>60</v>
@@ -5988,78 +5955,78 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB37" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC37" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD37" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE37" s="17"/>
       <c r="AF37" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG37" s="8"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G38" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
       <c r="O38" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S38" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U38" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V38" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W38" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X38" s="8">
         <v>1</v>
@@ -6067,78 +6034,78 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB38" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC38" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD38" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE38" s="17"/>
       <c r="AF38" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG38" s="8"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J39" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="22" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S39" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T39" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U39" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V39" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W39" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X39" s="8">
         <v>1</v>
@@ -6146,51 +6113,51 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB39" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC39" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD39" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE39" s="17"/>
       <c r="AF39" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG39" s="8"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G40" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -6200,35 +6167,35 @@
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
       <c r="R40" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S40" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T40" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U40" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V40" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W40" s="8"/>
       <c r="X40" s="8"/>
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB40" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC40" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD40" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE40" s="8"/>
       <c r="AF40" s="8"/>
@@ -6236,32 +6203,32 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J41" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -6270,38 +6237,38 @@
       <c r="O41" s="1"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S41" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T41" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U41" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W41" s="8"/>
       <c r="X41" s="8"/>
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB41" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC41" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD41" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
@@ -6309,280 +6276,280 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" s="21"/>
       <c r="D42" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G42" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R42" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S42" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T42" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U42" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V42" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="W42" s="8"/>
       <c r="X42" s="8"/>
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF42" s="17"/>
       <c r="AG42" s="8"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G43" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J43" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S43" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="T43" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U43" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="V43" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W43" s="8"/>
       <c r="X43" s="8"/>
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF43" s="17"/>
       <c r="AG43" s="8"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G44" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R44" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S44" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T44" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U44" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="V44" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W44" s="8"/>
       <c r="X44" s="8"/>
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB44" s="17"/>
       <c r="AC44" s="8"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AF44" s="17"/>
       <c r="AG44" s="8"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G45" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="1"/>
       <c r="O45" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S45" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T45" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U45" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W45" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X45" s="8">
         <v>3</v>
@@ -6590,78 +6557,78 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB45" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC45" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD45" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE45" s="17"/>
       <c r="AF45" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG45" s="8"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="1"/>
       <c r="O46" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P46" s="19"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S46" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T46" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U46" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V46" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W46" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X46" s="8">
         <v>3</v>
@@ -6669,78 +6636,78 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB46" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC46" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD46" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE46" s="17"/>
       <c r="AF46" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG46" s="8"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G47" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="1"/>
       <c r="O47" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P47" s="19"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S47" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T47" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U47" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W47" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="X47" s="8">
         <v>3</v>
@@ -6748,303 +6715,303 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB47" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC47" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD47" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE47" s="17"/>
       <c r="AF47" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AG47" s="8"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G48" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H48" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J48" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K48" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>92</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S48" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="T48" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="U48" t="s">
+        <v>81</v>
+      </c>
+      <c r="V48" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA48" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB48" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC48" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD48" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="K48" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>94</v>
-      </c>
-      <c r="R48" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="S48" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="T48" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="U48" t="s">
-        <v>83</v>
-      </c>
-      <c r="V48" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA48" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC48" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AD48" s="17" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>169</v>
-      </c>
       <c r="D49" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G49" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J49" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="R49" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S49" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="T49" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V49" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA49" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB49" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC49" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD49" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G50" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J50" s="17" t="s">
-        <v>90</v>
-      </c>
       <c r="K50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q50" s="11">
         <v>0</v>
       </c>
       <c r="R50" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S50" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="T50" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V50" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA50" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB50" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC50" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD50" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q51" s="11">
         <v>100</v>
       </c>
       <c r="R51" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S51" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="T51" s="17" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U51" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V51" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA51" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB51" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC51" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD51" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G52" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H52" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -7054,35 +7021,35 @@
       <c r="P52" s="19"/>
       <c r="Q52" s="8"/>
       <c r="R52" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S52" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="T52" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U52" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V52" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="W52" s="8"/>
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB52" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC52" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD52" s="17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AE52" s="8"/>
       <c r="AF52" s="8"/>
@@ -7090,32 +7057,32 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G53" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H53" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J53" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
@@ -7124,38 +7091,38 @@
       <c r="O53" s="1"/>
       <c r="P53" s="19"/>
       <c r="Q53" s="8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R53" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="S53" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T53" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="U53" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="V53" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W53" s="8"/>
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB53" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AC53" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AD53" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AE53" s="8"/>
       <c r="AF53" s="8"/>
